--- a/formshare/tests/resources/forms/case/case_activate.xlsx
+++ b/formshare/tests/resources/forms/case/case_activate.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t xml:space="preserve">form_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">version</t>
   </si>
   <si>
     <t xml:space="preserve">Household Enter Survey</t>
@@ -403,7 +406,7 @@
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.1"/>
@@ -557,8 +560,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -579,7 +582,7 @@
       <selection pane="bottomLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.64"/>
@@ -710,8 +713,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -724,13 +727,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="246" zoomScaleNormal="246" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.35"/>
@@ -744,19 +747,25 @@
       <c r="B1" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
